--- a/simulation_data/two_step_algorithm/2s_error_level_14_percent_water_1.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_14_percent_water_1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>94.92343861286055</v>
+        <v>94.13472073331118</v>
       </c>
       <c r="D2" t="n">
-        <v>19.38076948994044</v>
+        <v>15.75304369577876</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>92.84756543209491</v>
+        <v>91.89637088967319</v>
       </c>
       <c r="D3" t="n">
-        <v>18.94998771756069</v>
+        <v>17.51361157616311</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.38549827699387</v>
+        <v>90.27116489258565</v>
       </c>
       <c r="D4" t="n">
-        <v>15.43520383579455</v>
+        <v>15.16970913897859</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>90.0862582189725</v>
+        <v>88.23012610272042</v>
       </c>
       <c r="D5" t="n">
-        <v>16.66277599369127</v>
+        <v>15.79374698081021</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>90.73756636120793</v>
+        <v>89.66249206969199</v>
       </c>
       <c r="D6" t="n">
-        <v>17.56193613442987</v>
+        <v>14.9091052651092</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>88.04768568847503</v>
+        <v>89.66957001989034</v>
       </c>
       <c r="D7" t="n">
-        <v>19.43526550021431</v>
+        <v>18.60133460815273</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>88.51482759978731</v>
+        <v>84.80600651181709</v>
       </c>
       <c r="D8" t="n">
-        <v>16.02924417210072</v>
+        <v>16.61529410375609</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>87.39374226227739</v>
+        <v>85.20450687930369</v>
       </c>
       <c r="D9" t="n">
-        <v>17.40326434002284</v>
+        <v>17.47914050477289</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>85.03696320559192</v>
+        <v>85.31601550242132</v>
       </c>
       <c r="D10" t="n">
-        <v>17.93441201397336</v>
+        <v>14.03515596756831</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>85.78434056636399</v>
+        <v>84.82093023751693</v>
       </c>
       <c r="D11" t="n">
-        <v>17.31452927570199</v>
+        <v>15.69018007693502</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>85.38109157586659</v>
+        <v>83.61091508839867</v>
       </c>
       <c r="D12" t="n">
-        <v>16.397707674026</v>
+        <v>15.19017862112385</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.00904557651039</v>
+        <v>82.25202676678288</v>
       </c>
       <c r="D13" t="n">
-        <v>15.21979891675146</v>
+        <v>15.95206786736546</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>81.85654606396585</v>
+        <v>77.81389142299358</v>
       </c>
       <c r="D14" t="n">
-        <v>16.74021110057496</v>
+        <v>15.33721587051935</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>81.12331454400469</v>
+        <v>78.19792107022937</v>
       </c>
       <c r="D15" t="n">
-        <v>16.50795608990912</v>
+        <v>15.95248021601066</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>73.80523357043877</v>
+        <v>79.05693820303459</v>
       </c>
       <c r="D16" t="n">
-        <v>15.8377113854414</v>
+        <v>17.74816777435824</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.48442859933567</v>
+        <v>78.05480393263008</v>
       </c>
       <c r="D17" t="n">
-        <v>16.50145996554855</v>
+        <v>14.89152666774299</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>76.30974141948971</v>
+        <v>75.85582936209688</v>
       </c>
       <c r="D18" t="n">
-        <v>15.77469350393379</v>
+        <v>14.9976394049959</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>74.16500063564375</v>
+        <v>73.94988961531773</v>
       </c>
       <c r="D19" t="n">
-        <v>15.53995540100755</v>
+        <v>14.50937027658737</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>75.78503759032674</v>
+        <v>74.2954255157594</v>
       </c>
       <c r="D20" t="n">
-        <v>15.55013104750976</v>
+        <v>15.54962237671765</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>74.92782217932286</v>
+        <v>72.09133686591406</v>
       </c>
       <c r="D21" t="n">
-        <v>14.76065161034189</v>
+        <v>17.9007262937913</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>71.21384398099843</v>
+        <v>71.59424194068195</v>
       </c>
       <c r="D22" t="n">
-        <v>16.44588773914424</v>
+        <v>16.50768798246662</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>70.98329667479022</v>
+        <v>73.25728384899772</v>
       </c>
       <c r="D23" t="n">
-        <v>16.35168586509396</v>
+        <v>15.4681633875033</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>70.51256661542563</v>
+        <v>67.9081264950977</v>
       </c>
       <c r="D24" t="n">
-        <v>19.23088841884027</v>
+        <v>17.25489794979434</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.39851412601438</v>
+        <v>68.73229552102232</v>
       </c>
       <c r="D25" t="n">
-        <v>17.39253656977583</v>
+        <v>14.57630760911474</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.98857350308204</v>
+        <v>66.83082967928766</v>
       </c>
       <c r="D26" t="n">
-        <v>17.38304703097394</v>
+        <v>15.27510354717996</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.71942373423704</v>
+        <v>66.52450076121703</v>
       </c>
       <c r="D27" t="n">
-        <v>17.13904567163125</v>
+        <v>15.99509192341233</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.91926460535544</v>
+        <v>64.67748192551898</v>
       </c>
       <c r="D28" t="n">
-        <v>18.54093897572301</v>
+        <v>15.78980691273531</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>65.79246940915023</v>
+        <v>63.36062778192129</v>
       </c>
       <c r="D29" t="n">
-        <v>16.67135412299299</v>
+        <v>16.44607165876633</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>59.91180952952261</v>
+        <v>63.46066170463742</v>
       </c>
       <c r="D30" t="n">
-        <v>16.47806296727637</v>
+        <v>15.62084191752565</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>65.59791934263856</v>
+        <v>61.16188420135752</v>
       </c>
       <c r="D31" t="n">
-        <v>15.46212070823046</v>
+        <v>16.03184212597233</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>65.31151858069082</v>
+        <v>61.25280278956027</v>
       </c>
       <c r="D32" t="n">
-        <v>16.16046346777198</v>
+        <v>15.56845266986691</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>60.8637727657831</v>
+        <v>58.51346247963906</v>
       </c>
       <c r="D33" t="n">
-        <v>17.37536364080389</v>
+        <v>16.38528185612149</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>59.41170152192961</v>
+        <v>60.7329757463563</v>
       </c>
       <c r="D34" t="n">
-        <v>15.19609480779274</v>
+        <v>15.96256923868809</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>60.80289597319535</v>
+        <v>56.38458173867954</v>
       </c>
       <c r="D35" t="n">
-        <v>15.42356244965601</v>
+        <v>16.05717215336962</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>57.08203673662335</v>
+        <v>56.20885613545511</v>
       </c>
       <c r="D36" t="n">
-        <v>17.65941212080031</v>
+        <v>14.2636718637715</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>58.21404658083721</v>
+        <v>54.64328164093438</v>
       </c>
       <c r="D37" t="n">
-        <v>15.89716199721478</v>
+        <v>16.86851390086026</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.7591743454386</v>
+        <v>52.25063532294648</v>
       </c>
       <c r="D38" t="n">
-        <v>15.60528863766524</v>
+        <v>15.68610009204928</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>55.73399872643429</v>
+        <v>54.59626342254792</v>
       </c>
       <c r="D39" t="n">
-        <v>15.63418866164082</v>
+        <v>13.73959800098302</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>55.13687830754413</v>
+        <v>52.22195003996571</v>
       </c>
       <c r="D40" t="n">
-        <v>15.79398717511339</v>
+        <v>15.49307660684319</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.88350464639927</v>
+        <v>48.26353713045238</v>
       </c>
       <c r="D41" t="n">
-        <v>16.61130716799057</v>
+        <v>14.28529855748479</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.94667933969124</v>
+        <v>52.19147521563247</v>
       </c>
       <c r="D42" t="n">
-        <v>17.33896932188455</v>
+        <v>14.24183630475281</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.81831274343688</v>
+        <v>49.40489957163985</v>
       </c>
       <c r="D43" t="n">
-        <v>14.53630861862426</v>
+        <v>15.22492312561673</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.17068603973308</v>
+        <v>49.55382875164248</v>
       </c>
       <c r="D44" t="n">
-        <v>15.46336334604712</v>
+        <v>14.48120944147309</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>49.26604342971811</v>
+        <v>45.47521836680056</v>
       </c>
       <c r="D45" t="n">
-        <v>15.56915000153934</v>
+        <v>16.81236844286402</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.2766273009027</v>
+        <v>42.93060805393267</v>
       </c>
       <c r="D46" t="n">
-        <v>15.86170121456902</v>
+        <v>16.5363009740599</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.95490024699715</v>
+        <v>47.98260092524679</v>
       </c>
       <c r="D47" t="n">
-        <v>16.91432849992872</v>
+        <v>15.56703796470106</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.67709104159212</v>
+        <v>42.50655561240924</v>
       </c>
       <c r="D48" t="n">
-        <v>14.27806883201317</v>
+        <v>16.70563308305316</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.2788210043367</v>
+        <v>42.84392845642335</v>
       </c>
       <c r="D49" t="n">
-        <v>15.8435544123897</v>
+        <v>15.04187410009558</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>45.28988924096217</v>
+        <v>44.1583930617693</v>
       </c>
       <c r="D50" t="n">
-        <v>14.49055620438856</v>
+        <v>16.01933055236195</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>42.113661381297</v>
+        <v>40.3828012315488</v>
       </c>
       <c r="D51" t="n">
-        <v>16.9214505242512</v>
+        <v>14.35762051945303</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>44.16954842959967</v>
+        <v>40.0495195030057</v>
       </c>
       <c r="D52" t="n">
-        <v>14.81803567656771</v>
+        <v>16.29759256503872</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>40.49265194970111</v>
+        <v>39.28008741877348</v>
       </c>
       <c r="D53" t="n">
-        <v>15.44903844492737</v>
+        <v>16.13055523904427</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.26228724742182</v>
+        <v>37.675116656787</v>
       </c>
       <c r="D54" t="n">
-        <v>14.99238600539282</v>
+        <v>18.11018190312169</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>33.89514058400763</v>
+        <v>36.29770841039173</v>
       </c>
       <c r="D55" t="n">
-        <v>13.90778546335788</v>
+        <v>16.59826927224871</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>34.802531913942</v>
+        <v>34.38962607537363</v>
       </c>
       <c r="D56" t="n">
-        <v>16.29092487260541</v>
+        <v>15.1168067342979</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>36.04438884976784</v>
+        <v>33.67530822051966</v>
       </c>
       <c r="D57" t="n">
-        <v>15.37899668911832</v>
+        <v>15.91673800482648</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.52546235727061</v>
+        <v>31.21193724469001</v>
       </c>
       <c r="D58" t="n">
-        <v>18.46786989128584</v>
+        <v>14.78753847936435</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>34.61070952697786</v>
+        <v>31.23857043052357</v>
       </c>
       <c r="D59" t="n">
-        <v>15.66632239123756</v>
+        <v>15.0360551629933</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.92645520997734</v>
+        <v>33.89398675817108</v>
       </c>
       <c r="D60" t="n">
-        <v>18.34266055118109</v>
+        <v>16.55204716267007</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.21970529099356</v>
+        <v>28.31606884366725</v>
       </c>
       <c r="D61" t="n">
-        <v>14.12451493423503</v>
+        <v>16.56914485595552</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.00280047825023</v>
+        <v>29.51256412423437</v>
       </c>
       <c r="D62" t="n">
-        <v>16.0634660963466</v>
+        <v>15.65900830151071</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.94878259987796</v>
+        <v>34.02943175766749</v>
       </c>
       <c r="D63" t="n">
-        <v>15.74054542205537</v>
+        <v>14.76396152079923</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.52576100821797</v>
+        <v>29.89984510011371</v>
       </c>
       <c r="D64" t="n">
-        <v>17.12697434272053</v>
+        <v>16.54957264171531</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>25.55701953982397</v>
+        <v>28.93323049707143</v>
       </c>
       <c r="D65" t="n">
-        <v>16.03909848328461</v>
+        <v>15.57238980188636</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.63023821609488</v>
+        <v>24.09690706587935</v>
       </c>
       <c r="D66" t="n">
-        <v>15.30728507817413</v>
+        <v>16.56088856349349</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.13532009261207</v>
+        <v>26.71365772806845</v>
       </c>
       <c r="D67" t="n">
-        <v>13.5227590299588</v>
+        <v>16.89962244250612</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.94413417011221</v>
+        <v>25.75447879745962</v>
       </c>
       <c r="D68" t="n">
-        <v>17.17162824550505</v>
+        <v>16.33586121768848</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>24.89448607773868</v>
+        <v>20.33083376045061</v>
       </c>
       <c r="D69" t="n">
-        <v>15.80032660327398</v>
+        <v>16.17296558418141</v>
       </c>
     </row>
   </sheetData>
